--- a/data/trans_camb/P6904-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6904-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,7</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,11</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,38; 33,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,9; 28,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,09; 55,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,15; 16,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,07; 35,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,74; 22,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,02; 12,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,67; 26,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,46; 16,24</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,97%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,18; 80,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,51; 71,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 131,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,46; 35,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,77; 75,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,78; 47,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,96; 28,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,1; 60,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,02; 33,99</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 21,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 23,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 31,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,15; 22,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 37,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,28; 26,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 17,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 26,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 24,46</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,99%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 53,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; 55,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 75,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,18; 65,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,83; 108,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,64; 72,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,4; 41,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,02; 64,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 58,6</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; 13,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,55; 17,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,67; 15,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 15,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,63; 23,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,19; 15,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,25; 9,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 15,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; 11,72</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,17; 26,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; 33,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,46; 29,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,68; 29,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,91; 47,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,46; 33,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,09; 17,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,6; 29,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,4; 22,18</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,52; 17,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,37; 21,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 26,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,78; 5,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,66; 20,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,81; 24,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,93; 9,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; 18,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,83; 25,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,37%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; 42,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,21; 53,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 65,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,48; 8,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,26; 36,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,22; 49,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,98; 20,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,32; 41,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,06; 59,8</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>57,74</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>41,33</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,32</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,78; 17,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,51; 22,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,68; 20,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,43; 65,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,09; 82,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,63; 63,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,36; 26,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 34,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 27,44</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>209,41%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,84%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,03; 33,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,85; 43,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,12; 39,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,44; 881,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,1; 1179,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,0; 920,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,83; 58,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 82,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 66,45</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-100,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-48,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-100,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,83</t>
         </is>
       </c>
     </row>
@@ -1823,42 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>-48,47%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,83%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 10,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 15,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 16,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 9,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 24,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 19,55</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 7,32</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,77; 16,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,56; 15,73</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 21,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 30,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 33,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,65; 19,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,39; 52,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 42,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 14,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,31; 32,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,84; 33,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6904-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,76</t>
+          <t>-17,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-22,7</t>
+          <t>-22,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,11</t>
+          <t>-14,6</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 55,01</t>
+          <t>-53,59; 54,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,74; 22,37</t>
+          <t>-55,72; 20,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 16,24</t>
+          <t>-40,87; 14,96</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-30,9%</t>
+          <t>-36,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,12%</t>
+          <t>-35,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-26,97%</t>
+          <t>-27,91%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 131,13</t>
+          <t>-100,0; 120,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,78; 47,42</t>
+          <t>-79,05; 44,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-73,02; 33,99</t>
+          <t>-73,62; 34,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,94</t>
+          <t>14,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>11,61</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 31,91</t>
+          <t>-4,39; 31,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 26,9</t>
+          <t>-10,02; 25,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 24,46</t>
+          <t>-1,18; 24,66</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>25,25%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 75,3</t>
+          <t>-8,48; 75,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 72,48</t>
+          <t>-19,77; 72,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 58,6</t>
+          <t>-1,88; 59,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 15,25</t>
+          <t>-12,32; 15,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 15,06</t>
+          <t>-14,33; 14,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 11,72</t>
+          <t>-9,53; 11,96</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 29,18</t>
+          <t>-19,03; 29,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 33,16</t>
+          <t>-21,54; 31,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 22,18</t>
+          <t>-14,91; 22,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,37</t>
+          <t>15,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,74</t>
+          <t>17,71</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 26,88</t>
+          <t>-0,29; 26,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 24,54</t>
+          <t>-9,78; 32,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,83; 25,95</t>
+          <t>6,74; 32,39</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>34,07%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 65,66</t>
+          <t>-0,48; 66,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 49,55</t>
+          <t>-13,36; 65,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,06; 59,8</t>
+          <t>11,44; 72,35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>41,33</t>
+          <t>41,77</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>11,31</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 20,13</t>
+          <t>-17,97; 19,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,63; 63,34</t>
+          <t>10,82; 63,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 27,44</t>
+          <t>-2,77; 27,34</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>149,89%</t>
+          <t>151,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>20,83%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 39,18</t>
+          <t>-25,39; 38,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>18,0; 920,06</t>
+          <t>18,96; 925,45</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 66,45</t>
+          <t>-3,92; 65,79</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-48,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-37,83</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-48,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-37,83%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>15,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>10,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 10,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 15,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,11; 16,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 9,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,95; 24,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,94; 19,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,77; 16,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,56; 15,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>7,31</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>9,25</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>15,45</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>13,54</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>10,39</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>11,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 10,88</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 15,06</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 16,6</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-9,82; 9,17</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 24,23</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 24,59</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 7,32</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 16,24</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 18,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>14,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>29,86%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>21,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-8,12; 21,85</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>1,06; 30,57</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 33,99</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 34,08</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-17,65; 19,28</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>10,39; 52,6</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 42,36</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 52,33</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-7,96; 14,97</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>9,31; 32,96</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 33,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>10,26; 36,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P6904-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 33,71</t>
+          <t>-36,86; 30,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 28,01</t>
+          <t>-24,43; 29,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,59; 54,44</t>
+          <t>-52,73; 58,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 16,68</t>
+          <t>-57,16; 14,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 35,52</t>
+          <t>-34,08; 35,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,72; 20,94</t>
+          <t>-59,93; 22,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 12,51</t>
+          <t>-35,83; 14,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 26,27</t>
+          <t>-20,11; 23,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-40,87; 14,96</t>
+          <t>-42,23; 16,28</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,18; 80,29</t>
+          <t>-72,77; 79,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,51; 71,83</t>
+          <t>-47,5; 77,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 120,91</t>
+          <t>-100,0; 139,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,46; 35,23</t>
+          <t>-84,33; 29,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 75,47</t>
+          <t>-46,54; 74,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,05; 44,57</t>
+          <t>-82,94; 46,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,96; 28,53</t>
+          <t>-60,97; 32,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 60,51</t>
+          <t>-36,19; 51,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-73,62; 34,01</t>
+          <t>-74,18; 33,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 21,77</t>
+          <t>-6,5; 19,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 23,69</t>
+          <t>-4,27; 24,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 31,86</t>
+          <t>-6,51; 31,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 22,21</t>
+          <t>-12,23; 21,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 37,19</t>
+          <t>3,34; 38,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 25,64</t>
+          <t>-7,84; 26,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 17,66</t>
+          <t>-4,03; 17,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 26,55</t>
+          <t>3,47; 25,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 24,66</t>
+          <t>-1,2; 24,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 53,69</t>
+          <t>-12,13; 47,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 55,32</t>
+          <t>-7,94; 57,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 75,14</t>
+          <t>-12,7; 75,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 65,94</t>
+          <t>-25,99; 61,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 108,68</t>
+          <t>6,46; 113,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 72,39</t>
+          <t>-16,39; 73,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 41,34</t>
+          <t>-8,27; 41,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 64,51</t>
+          <t>7,35; 60,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 59,83</t>
+          <t>-2,48; 60,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 13,63</t>
+          <t>-13,48; 12,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 17,73</t>
+          <t>-6,8; 18,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 15,54</t>
+          <t>-10,55; 16,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 15,22</t>
+          <t>-16,55; 15,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 23,17</t>
+          <t>-8,68; 23,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 14,91</t>
+          <t>-13,18; 16,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 9,51</t>
+          <t>-11,65; 9,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 15,81</t>
+          <t>-2,58; 17,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 11,96</t>
+          <t>-8,62; 11,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 26,13</t>
+          <t>-20,97; 22,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 33,68</t>
+          <t>-10,46; 35,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 29,65</t>
+          <t>-16,8; 33,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 29,94</t>
+          <t>-25,48; 31,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 47,78</t>
+          <t>-13,73; 49,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 31,96</t>
+          <t>-20,54; 35,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 17,63</t>
+          <t>-18,72; 17,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 29,64</t>
+          <t>-3,94; 32,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 22,86</t>
+          <t>-13,65; 21,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 17,08</t>
+          <t>-12,73; 17,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 21,96</t>
+          <t>-7,27; 22,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 26,92</t>
+          <t>1,0; 28,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-41,78; 5,05</t>
+          <t>-39,9; 4,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 20,03</t>
+          <t>-20,58; 19,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 32,34</t>
+          <t>-6,49; 32,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 9,87</t>
+          <t>-14,89; 9,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 18,72</t>
+          <t>-5,62; 18,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,74; 32,39</t>
+          <t>5,82; 30,53</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 42,92</t>
+          <t>-23,76; 46,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 53,14</t>
+          <t>-13,73; 57,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 66,35</t>
+          <t>2,94; 76,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 8,77</t>
+          <t>-56,15; 7,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,26; 36,79</t>
+          <t>-27,02; 41,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 65,28</t>
+          <t>-9,51; 65,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 20,84</t>
+          <t>-26,14; 20,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 41,34</t>
+          <t>-10,46; 40,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,44; 72,35</t>
+          <t>10,02; 66,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 17,78</t>
+          <t>-27,26; 14,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 22,38</t>
+          <t>-18,78; 22,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 19,76</t>
+          <t>-15,78; 18,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,43; 65,77</t>
+          <t>4,54; 66,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,09; 82,24</t>
+          <t>25,68; 81,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,82; 63,6</t>
+          <t>14,7; 64,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 26,06</t>
+          <t>-9,3; 25,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 34,62</t>
+          <t>-0,47; 33,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 27,34</t>
+          <t>-4,86; 23,4</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 33,57</t>
+          <t>-39,17; 26,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 43,84</t>
+          <t>-27,91; 44,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 38,28</t>
+          <t>-22,67; 36,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,44; 881,64</t>
+          <t>4,73; 869,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>50,1; 1179,81</t>
+          <t>52,4; 1179,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>18,96; 925,45</t>
+          <t>24,0; 894,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 58,5</t>
+          <t>-15,03; 60,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,48; 82,19</t>
+          <t>-0,66; 75,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 65,79</t>
+          <t>-7,56; 52,7</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 10,88</t>
+          <t>-5,25; 10,3</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,59; 15,06</t>
+          <t>-0,81; 13,99</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,81; 16,6</t>
+          <t>1,56; 16,46</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 9,17</t>
+          <t>-10,03; 9,21</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,95; 24,23</t>
+          <t>6,56; 24,63</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,82; 24,59</t>
+          <t>4,84; 25,38</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 7,32</t>
+          <t>-4,21; 7,42</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>4,77; 16,24</t>
+          <t>4,49; 16,13</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>5,7; 18,53</t>
+          <t>5,64; 17,91</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 21,85</t>
+          <t>-9,27; 20,97</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>1,06; 30,57</t>
+          <t>-1,45; 27,9</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>3,4; 34,08</t>
+          <t>2,88; 33,9</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 19,28</t>
+          <t>-17,86; 19,86</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>10,39; 52,6</t>
+          <t>11,58; 54,02</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>6,64; 52,33</t>
+          <t>8,3; 54,0</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 14,97</t>
+          <t>-7,82; 15,19</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>9,31; 32,96</t>
+          <t>8,28; 32,51</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>10,26; 36,55</t>
+          <t>10,6; 36,72</t>
         </is>
       </c>
     </row>
